--- a/ECB_mean_lt.xlsx
+++ b/ECB_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -145,7 +145,7 @@
         <v>44013</v>
       </c>
       <c r="B8" s="2">
-        <v>3.1574271404874361</v>
+        <v>3.1574271404874374</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -211,7 +211,7 @@
         <v>44197</v>
       </c>
       <c r="B14" s="2">
-        <v>3.4457490558095092</v>
+        <v>3.4457490558094701</v>
       </c>
       <c r="C14" s="2">
         <v>2.5</v>
@@ -310,7 +310,7 @@
         <v>44470</v>
       </c>
       <c r="B23" s="2">
-        <v>2.7036394908089072</v>
+        <v>2.7036394908089063</v>
       </c>
       <c r="C23" s="2">
         <v>1.7999999523162842</v>
@@ -365,7 +365,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="2">
-        <v>3.8507329289080485</v>
+        <v>3.850732928908049</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -390,7 +390,7 @@
         <v>3.8048124905680782</v>
       </c>
       <c r="C30" s="2">
-        <v>3.1500000953674316</v>
+        <v>3.1500000953674317</v>
       </c>
     </row>
     <row r="31">
@@ -412,7 +412,7 @@
         <v>3.8818800539454528</v>
       </c>
       <c r="C32" s="2">
-        <v>3.4000000953674316</v>
+        <v>3.4000000953674317</v>
       </c>
     </row>
     <row r="33">
@@ -442,7 +442,7 @@
         <v>44835</v>
       </c>
       <c r="B35" s="2">
-        <v>3.7110158740629777</v>
+        <v>3.7110158740629773</v>
       </c>
       <c r="C35" s="2">
         <v>3.5</v>
@@ -519,7 +519,7 @@
         <v>45047</v>
       </c>
       <c r="B42" s="2">
-        <v>3.1614793661370681</v>
+        <v>3.1614793661370682</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
@@ -530,7 +530,7 @@
         <v>45078</v>
       </c>
       <c r="B43" s="2">
-        <v>3.6511622575387777</v>
+        <v>3.6511622575387772</v>
       </c>
       <c r="C43" s="2">
         <v>3</v>
@@ -552,7 +552,7 @@
         <v>45139</v>
       </c>
       <c r="B45" s="2">
-        <v>3.9115942918278339</v>
+        <v>3.9115942918278348</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
@@ -574,7 +574,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="2">
-        <v>4.3402053283443838</v>
+        <v>4.3402053283443829</v>
       </c>
       <c r="C47" s="2">
         <v>3.2999999523162842</v>
@@ -635,6 +635,53 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4.7243623329796085</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4.1531256199256497</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3.0999999046325684</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3.9741222102130807</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/ECB_mean_lt.xlsx
+++ b/ECB_mean_lt.xlsx
@@ -112,7 +112,7 @@
         <v>43922</v>
       </c>
       <c r="B5" s="2">
-        <v>3.4991418618264554</v>
+        <v>3.4991418618264531</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -277,7 +277,7 @@
         <v>44378</v>
       </c>
       <c r="B20" s="2">
-        <v>3.7110083240476399</v>
+        <v>3.711008324047639</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -299,7 +299,7 @@
         <v>44440</v>
       </c>
       <c r="B22" s="2">
-        <v>3.4874202741550695</v>
+        <v>3.4874202741550602</v>
       </c>
       <c r="C22" s="2">
         <v>2.5</v>
@@ -442,7 +442,7 @@
         <v>44835</v>
       </c>
       <c r="B35" s="2">
-        <v>3.7110158740629773</v>
+        <v>3.7110158740629777</v>
       </c>
       <c r="C35" s="2">
         <v>3.5</v>
@@ -552,7 +552,7 @@
         <v>45139</v>
       </c>
       <c r="B45" s="2">
-        <v>3.9115942918278348</v>
+        <v>3.9115942918278339</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>

--- a/ECB_mean_lt.xlsx
+++ b/ECB_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -112,7 +112,7 @@
         <v>43922</v>
       </c>
       <c r="B5" s="2">
-        <v>3.4991418618264531</v>
+        <v>3.499141862354735</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -123,7 +123,7 @@
         <v>43952</v>
       </c>
       <c r="B6" s="2">
-        <v>3.020445598530475</v>
+        <v>3.0204455992343306</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -134,7 +134,7 @@
         <v>43983</v>
       </c>
       <c r="B7" s="2">
-        <v>3.5125897771568861</v>
+        <v>3.5125897781563267</v>
       </c>
       <c r="C7" s="2">
         <v>2.2999999523162842</v>
@@ -145,7 +145,7 @@
         <v>44013</v>
       </c>
       <c r="B8" s="2">
-        <v>3.1574271404874374</v>
+        <v>3.1574271404874361</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -156,7 +156,7 @@
         <v>44044</v>
       </c>
       <c r="B9" s="2">
-        <v>2.9732649833983325</v>
+        <v>2.9732649834018154</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -167,7 +167,7 @@
         <v>44075</v>
       </c>
       <c r="B10" s="2">
-        <v>2.7950670288123445</v>
+        <v>2.7950670292830289</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -178,7 +178,7 @@
         <v>44105</v>
       </c>
       <c r="B11" s="2">
-        <v>3.2527451463922006</v>
+        <v>3.2527451461202257</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -189,7 +189,7 @@
         <v>44136</v>
       </c>
       <c r="B12" s="2">
-        <v>3.1366488865940911</v>
+        <v>3.136648886594092</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -211,7 +211,7 @@
         <v>44197</v>
       </c>
       <c r="B14" s="2">
-        <v>3.4457490558094701</v>
+        <v>3.4457490558095092</v>
       </c>
       <c r="C14" s="2">
         <v>2.5</v>
@@ -266,7 +266,7 @@
         <v>44348</v>
       </c>
       <c r="B19" s="2">
-        <v>4.1964485503483555</v>
+        <v>4.1964485503483546</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -299,7 +299,7 @@
         <v>44440</v>
       </c>
       <c r="B22" s="2">
-        <v>3.4874202741550602</v>
+        <v>3.4874202741550695</v>
       </c>
       <c r="C22" s="2">
         <v>2.5</v>
@@ -310,7 +310,7 @@
         <v>44470</v>
       </c>
       <c r="B23" s="2">
-        <v>2.7036394908089063</v>
+        <v>2.7036394912638082</v>
       </c>
       <c r="C23" s="2">
         <v>1.7999999523162842</v>
@@ -321,7 +321,7 @@
         <v>44501</v>
       </c>
       <c r="B24" s="2">
-        <v>4.0865494503913</v>
+        <v>4.0865494512064702</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -343,7 +343,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="2">
-        <v>3.8672670582059143</v>
+        <v>3.8672670582059214</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -365,7 +365,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="2">
-        <v>3.850732928908049</v>
+        <v>3.8507329289080485</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -376,7 +376,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="2">
-        <v>4.2649230100980802</v>
+        <v>4.264923010122315</v>
       </c>
       <c r="C29" s="2">
         <v>3.5</v>
@@ -387,10 +387,10 @@
         <v>44682</v>
       </c>
       <c r="B30" s="2">
-        <v>3.8048124905680782</v>
+        <v>3.804812490003763</v>
       </c>
       <c r="C30" s="2">
-        <v>3.1500000953674317</v>
+        <v>3.1500000953674316</v>
       </c>
     </row>
     <row r="31">
@@ -412,7 +412,7 @@
         <v>3.8818800539454528</v>
       </c>
       <c r="C32" s="2">
-        <v>3.4000000953674317</v>
+        <v>3.4000000953674316</v>
       </c>
     </row>
     <row r="33">
@@ -519,7 +519,7 @@
         <v>45047</v>
       </c>
       <c r="B42" s="2">
-        <v>3.1614793661370682</v>
+        <v>3.1614793661370681</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
@@ -530,7 +530,7 @@
         <v>45078</v>
       </c>
       <c r="B43" s="2">
-        <v>3.6511622575387772</v>
+        <v>3.6511622567549966</v>
       </c>
       <c r="C43" s="2">
         <v>3</v>
@@ -552,7 +552,7 @@
         <v>45139</v>
       </c>
       <c r="B45" s="2">
-        <v>3.9115942918278339</v>
+        <v>3.9115942924127554</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
@@ -574,7 +574,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="2">
-        <v>4.3402053283443829</v>
+        <v>4.3402053283443838</v>
       </c>
       <c r="C47" s="2">
         <v>3.2999999523162842</v>
@@ -585,7 +585,7 @@
         <v>45231</v>
       </c>
       <c r="B48" s="2">
-        <v>3.8853768983790213</v>
+        <v>3.8853768983537429</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
@@ -596,7 +596,7 @@
         <v>45261</v>
       </c>
       <c r="B49" s="2">
-        <v>3.9346189122443356</v>
+        <v>3.9346189130210516</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
@@ -618,7 +618,7 @@
         <v>45323</v>
       </c>
       <c r="B51" s="2">
-        <v>4.3105899593718622</v>
+        <v>4.3105899595757666</v>
       </c>
       <c r="C51" s="2">
         <v>3</v>
@@ -629,7 +629,7 @@
         <v>45352</v>
       </c>
       <c r="B52" s="2">
-        <v>4.3959122315890173</v>
+        <v>4.3959122317039006</v>
       </c>
       <c r="C52" s="2">
         <v>3.5</v>
@@ -672,15 +672,100 @@
       <c r="A56" s="1">
         <v>45474</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="2">
+        <v>4.1494526746385363</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>45505</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="2">
+        <v>4.0994317907359088</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3.9088409532940434</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4.5244216438247786</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.4000000953674316</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4.534444939525204</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3.2000000476837158</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4.6021189435766479</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3.2000000476837158</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4.3238947451761458</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4.7441090386901772</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4.5395244355094615</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3.5</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_mean_lt.xlsx
+++ b/ECB_mean_lt.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -145,7 +145,7 @@
         <v>44013</v>
       </c>
       <c r="B8" s="2">
-        <v>3.1574271404874361</v>
+        <v>3.1574271404874374</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -211,7 +211,7 @@
         <v>44197</v>
       </c>
       <c r="B14" s="2">
-        <v>3.4457490558095092</v>
+        <v>3.4457490558094701</v>
       </c>
       <c r="C14" s="2">
         <v>2.5</v>
@@ -266,7 +266,7 @@
         <v>44348</v>
       </c>
       <c r="B19" s="2">
-        <v>4.1964485503483546</v>
+        <v>4.1964485503483555</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -277,7 +277,7 @@
         <v>44378</v>
       </c>
       <c r="B20" s="2">
-        <v>3.711008324047639</v>
+        <v>3.7110083240476386</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -442,7 +442,7 @@
         <v>44835</v>
       </c>
       <c r="B35" s="2">
-        <v>3.7110158740629777</v>
+        <v>3.7110158740629773</v>
       </c>
       <c r="C35" s="2">
         <v>3.5</v>
@@ -552,7 +552,7 @@
         <v>45139</v>
       </c>
       <c r="B45" s="2">
-        <v>3.9115942924127554</v>
+        <v>3.9115942924127545</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
@@ -574,7 +574,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="2">
-        <v>4.3402053283443838</v>
+        <v>4.3402053283443829</v>
       </c>
       <c r="C47" s="2">
         <v>3.2999999523162842</v>
@@ -651,7 +651,7 @@
         <v>45413</v>
       </c>
       <c r="B54" s="2">
-        <v>4.1531256199256497</v>
+        <v>4.1531256199256514</v>
       </c>
       <c r="C54" s="2">
         <v>3.0999999046325684</v>
@@ -750,7 +750,7 @@
         <v>45689</v>
       </c>
       <c r="B63" s="2">
-        <v>4.7441090386901772</v>
+        <v>4.7441090386901781</v>
       </c>
       <c r="C63" s="2">
         <v>4</v>
@@ -761,11 +761,18 @@
         <v>45717</v>
       </c>
       <c r="B64" s="2">
-        <v>4.5395244355094615</v>
+        <v>4.5395244355093451</v>
       </c>
       <c r="C64" s="2">
         <v>3.5</v>
       </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
     </row>
   </sheetData>
 </worksheet>
